--- a/upload/file.xlsx
+++ b/upload/file.xlsx
@@ -163,7 +163,7 @@
     <t xml:space="preserve">26-11-2021 01:28:46</t>
   </si>
   <si>
-    <t xml:space="preserve">Saiting</t>
+    <t xml:space="preserve">Saitin</t>
   </si>
   <si>
     <t xml:space="preserve">Bapak Septian</t>
@@ -193,7 +193,7 @@
     <t xml:space="preserve">25-11-2021 22:22:31</t>
   </si>
   <si>
-    <t xml:space="preserve">selesai</t>
+    <t xml:space="preserve">selass</t>
   </si>
   <si>
     <t xml:space="preserve">Pak Badri</t>
@@ -306,7 +306,7 @@
   </sheetPr>
   <dimension ref="A1:Z5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>

--- a/upload/file.xlsx
+++ b/upload/file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="119">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -121,51 +121,51 @@
     <t xml:space="preserve">26-11-2021 05:35:39</t>
   </si>
   <si>
+    <t xml:space="preserve">Waitfsdfing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">085396302751</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telepon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nurlinda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINAS PU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KERUSUHAN/TAWURAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaporkan telah terjadi perang kelompok antar warga dilokasi tersebut dan Telah diteruskan kepihak kepolisian polrestabes makassar.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Sungai Limboto, depan Pangsit Mie Palu Kel. Pisang Utara Kec. Ujung Pandang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UJUNG PANDANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PISANG UTARA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26-11-2021 01:28:46</t>
+  </si>
+  <si>
     <t xml:space="preserve">Waiting</t>
   </si>
   <si>
-    <t xml:space="preserve">ASDAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">085396302751</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telepon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nurlinda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINAS PU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KERUSUHAN/TAWURAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melaporkan telah terjadi perang kelompok antar warga dilokasi tersebut dan Telah diteruskan kepihak kepolisian polrestabes makassar.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Sungai Limboto, depan Pangsit Mie Palu Kel. Pisang Utara Kec. Ujung Pandang</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UJUNG PANDANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PISANG UTARA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">26-11-2021 01:28:46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Saitin</t>
-  </si>
-  <si>
     <t xml:space="preserve">Bapak Septian</t>
   </si>
   <si>
@@ -193,9 +193,6 @@
     <t xml:space="preserve">25-11-2021 22:22:31</t>
   </si>
   <si>
-    <t xml:space="preserve">selass</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pak Badri</t>
   </si>
   <si>
@@ -203,6 +200,183 @@
   </si>
   <si>
     <t xml:space="preserve">Nur Alam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HOME CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">membutuhkan homecare untuk anaknya atas nama nama arsila umur 1,6 tahun keluhannya demam dan muntah sudah 4 hari sudah diteteruskan ke  homecare pattingalloang dan akan ditindaklanjuti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl.barukang no 10 kelurahan pattingalloang baru kecamatan ujungtanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UJUNG TANAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATTINGALLOANG BARU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl.barukang no 10 kelurahan pattingalloang baru kecamatan ujung tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-11-2021 21:48:27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ahmad israil 085256070323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melaporkan ada 1 titik lampu jalan mati. sudah di teruskan ke dinas PU lampu jalan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jln. sukaria 4 no. 40 kec. panakukkang kel. tamamaung</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANAKKUKANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMAMAUNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-11-2021 18:29:56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bapak Arman Cegge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">085341844185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M. Isfan Bangsawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butuh Home Care atas nama Norlan umur 66 dengan keluhan lemas, nyeri lutut sudah 3 hari, tidak bisa jalan, riwayat penyakit diabetes. Diteruskan ke HC. Pulau Barrang Lompo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pulau Barrang lompo RW. 4, Rt. 5,Kel. Barrang Lompo, Kec. Kepulauan Sangkarang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEPULAUAN SANGKARRANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARRANG LOMPO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-11-2021 17:50:31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibu Rasda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yg sakit an. hj. sohra usia 60 thn dengan keluhan tiba-tiba demam, kondisi saat ini tidak sadarkan diri. di teruskan ke hc. tabaringan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl. sabutung no.145, kel. gusung kec. ujung tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depan sd. neg. ujung tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-11-2021 11:57:33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibu fitri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081340022208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur Surya Reski</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melaporkan membutuhkan layanan homecare an. ibu subaedah umur 76 tahun keluhannya tidak bisa jalan karena kakinya sudah di amputasi, ada riwayat diabetes sekarang sesak napas karena lendir tidak bisa keluar dan tidak bisa makan sudah 1 minggu. laporan sudah diteruskan ke homecare antang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl. waduk bitoa no. 7 kel. bitowa kec. manggala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGGALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BITOWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dekat gor waduk bitoa samping masjid babus salam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-11-2021 10:35:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibu wahyuningsih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">085399070764</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rezki Andriyanti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PENGADUAN PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaporkan Kwh meteran  listrik yang bermasalah.Laporan sudah diteruskan kantor PLN 123 dengan kode lap.V22yoso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalan Tamangapa Raya No.57b Rt 1 Rw 2 Kel.Bangkala Kec.Manggala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANGKALA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">depan Apotik semangat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-11-2021 09:24:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waitifdsfdsng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bapak Heri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0895806369994</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dede Taruma Negara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membutuhkan layanan homecare untuk an. Hj. Sohra (59) dengan keluhan sakit sejak semalam tidak bangun dan susah/sulit berbicara, Riwayat penyakit hipertensi. Laporan telah diteruskan ke homecare Tabaringan untuk penanganan lebih lanjut.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Sabutung No.145 Kel. Gusung Kec. Ujung Tanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TABARINGAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No.145</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25-11-2021 08:59:30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dsadasdas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibu Nadra/ 081237702577</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081243583877</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juwita Pusparindah</t>
   </si>
 </sst>
 </file>
@@ -304,10 +478,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z5"/>
+  <dimension ref="A1:Z11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J10" activeCellId="0" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -569,16 +743,16 @@
         <v>56</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
       <c r="L4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="N4" s="1" t="s">
         <v>36</v>
@@ -587,7 +761,7 @@
         <v>37</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="Q4" s="1" t="s">
         <v>39</v>
@@ -614,13 +788,524 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2971</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>29762120211125</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="M5" s="1" t="n">
+        <v>6285749601152</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X5" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2970</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>29752120211125</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2969</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>29742120211125</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>6285649280042</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X7" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2968</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>29732120211125</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W8" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X8" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2967</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>29722120211125</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2966</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>29712120211125</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2965</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>29702120211125</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/upload/file.xlsx
+++ b/upload/file.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="130">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
@@ -100,13 +100,199 @@
     <t xml:space="preserve">Catatan L3</t>
   </si>
   <si>
-    <t xml:space="preserve">COVID - 19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Menanyakan sertifikat vaksin dosis ke 2 yang belum terbit. (Dinkes)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bandar Udara Internasional Sultan Hasanuddin  Jln.  Airport No.1 Maros</t>
+    <t xml:space="preserve">HOME CARE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butuh Home Care untuk Ibu Najmuati umur 67 tahun dengan keluhan lemas, kurang nafsu makan, pusing. Diteruskan ke HC. Cendrawasih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Baji Passare No. 13, Kel. Tamparang keke, Kec. Mamajang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAMAJANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMPARANG KEKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-11-2021 17:30:26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selesai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bapak Irwan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telepon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Normal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur Alam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINKES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBULANS JENAZAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaporkan membutuhkan ambulance untuk pengantaran ke rumah sakit . nomor lain yang bisa dihubungi  085395937492 . Laporan sudah diteruskan ke pihak Ambulance .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jln Banta bantaeng stadium futsal sebelum kanal Kel Banta banteng Kec Rappocini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPPOCINI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BANTA-BANTAENG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-11-2021 16:44:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibu Hilda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08978570429</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rama Kesumawardana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMBULANS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEBAKARAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melaporkan rumah yang terbakar . laporan diteruskan ke Damkar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl. sabutung baru 5 Kel. Patingalloang</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UJUNG TANAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PATTINGALLOANG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ujungtanah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-11-2021 01:29:22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pak Satria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081803571138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Muh. Syawal Sudirman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DAMKAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30-11-2021 01:29:20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEPOLISIAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LAMPU JALAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">melaporkan 6 titik lampu jalan yang padam . laporan diteruskan ke PU Laston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jl. plamboyan  lr. mattoangin No.30 Kec. Mariso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MARISO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MATTOANGIN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Makassar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-11-2021 21:23:40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibu Irni</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081258006838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DINAS PU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEKERASAN PEREMPUAN/ANAK/KDRT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaporkan Ibu vita mengalami kekerasan dalam keluarganya, pelaku adiknya sendiri an Dwiki umur 21th, dirumahnya ada orang tuanya namun mereka membiarkan saja kekerasan dilakukan. keadaan pelapor sekarang luka-luka di sekujur tubuhnya, ybs sudah mencoba hubungi polsek tallo namun tidak ada respon.Laporan diteruskan ke kepolisian.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jln. muh jufri no 14B depan masjid babuthaubah. kec. tallo kel. rappojawa. kota makassar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TALLO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAPPOJAWA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-11-2021 20:49:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibu vita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">085159966159</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mardiah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butuh bantuan homecare untuk ibunya (an. Hj. Marlia 84th) keluhan sudah berapa hari lemas, tidak ada nafsu makan, sakit dibagian lutut dan tidak bisa bangun. Telhah diteruskan kepihak homecare puskesmas kassi - kassi.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Arupala, Perumahan Permata Lestari Blok Q 7 No.14 Kel. Kassi - Kassi Kec. Rappocini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KASSI-KASSI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-11-2021 18:54:38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibu Lina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082291840228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arham Suriah Pratama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaporkan 1 titik lampu jalan padam dan Telah diteruskan kepihak Dinas PU Bag. lampu jalan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Asoka, Pondok Asri 1 Blok B 1 No.6 Kel. Sudiang Kec. Biringkanaya</t>
   </si>
   <si>
     <t xml:space="preserve">BIRING KANAYA</t>
@@ -115,88 +301,115 @@
     <t xml:space="preserve">SUDIANG</t>
   </si>
   <si>
-    <t xml:space="preserve">28-11-2021 19:25:11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Waiting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bpk. Rahmat Pangestu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0812100200831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Telepon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Normal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Endrayani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINKES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LAMPU JALAN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melaporkan Lampu Jalan Yang Padam 1 Titik pada Lokasi Tersebut di Teruskan Dinas PU - Lampu Jalan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl. Borong Jabu 1 ( Masjid Hae masting) Kel. Biring Romang Kec. Manggala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MANGGALA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BIRING ROMANG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masjid Hae masting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-11-2021 19:11:17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Muh Saleh RT 06 Rw 03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">082192777961</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ardiansyah Alimuddin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DINAS PU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Melaporkan lampu Jalan padam 4 titik,diteruskan kedinas PU lampu jalan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jl Gn Batu Putih No 51,Kel Kel Maricaya Baru ,Kec Makassar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAKASSAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MARICAYA BARU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">28-11-2021 19:11:10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pak Aco Makkatutu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08124290001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iskandar</t>
+    <t xml:space="preserve">29-11-2021 18:34:59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bapak Alamsyah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081258893188</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pasien Hj. Rosmawati (56), keluhan kaki, kepala dan leher terasa sakit dan tegang. Memiliki riwayat Asam Urat dan Kolesterol. Laporan diteruskan ke Pihak Home Care Kaluku Bodoa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Komp. Pasar Panampu, Blok Barat, No. 40, Kel. Panampu, kec. Tallo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANNAMPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-11-2021 14:53:08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hj. Rosmawati</t>
+  </si>
+  <si>
+    <t xml:space="preserve">082346473504</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olan Nur Rakhmat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membutuhkan layanan Home Care, Ibu Erniwati 51th dengan keluhan sakit di bagian kepala/pusing ketika kepala digerakkan. Laporan diteruskan ke Home Care Kassi-Kassi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Tamalate 2 Ujung Pondok Andi Naira Kel. Kassi Kassi Kec. Rappocini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-11-2021 13:48:50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Haerul</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081241536656</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nur Rahmad Ardi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Membutuhkan pelayanan Home care an. ibu Hj. Mariam usia 68tahun, keluhan lemas dan keringat dingin ( pasien stroke / tidak bisa jalan ). Telah diteruskan ke pihak Home care Tamalanrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jl. Kesejahteraan Perumahan BTP blok k no. 153  Kel. Tamalanrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMALANREA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-11-2021 12:22:29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ibu Linda 085342488153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08114406579</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Puspita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaporkan membutuhkan layanan Homecare pasien an H. Muin usia 90 tahun keluhannya tidak bisa jalan dan duduk disertai ada luka di bagian kaki . Laporan sudah diteruskan ke pihak Homecare Kaluku Bodoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jln tinumbu lr. 142 No. 53 Kel Bunga Eja Beru Kec Tallo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUNGA EJA BERU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jln tinumbu lr. 142 No. 53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-11-2021 09:26:53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibu yuliana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">081910064103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Melaporkan satu titik lampu jalan yang padam. Telah diteruskan ke Dinas PU bagian lampu jalan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kompleks Perumahan riverside resident blok a no. 5 Jl. dg tata lama Kel. Mangasa Kec. Tamalate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAMALATE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MANGASA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29-11-2021 09:02:06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bpk Frans 0811440830</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0411420622</t>
   </si>
 </sst>
 </file>
@@ -294,10 +507,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z20"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L22" activeCellId="0" sqref="L22"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -384,10 +597,10 @@
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>3010</v>
+        <v>3025</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>30152120211128</v>
+        <v>30302120211130</v>
       </c>
       <c r="C2" s="0" t="s">
         <v>26</v>
@@ -419,126 +632,126 @@
       <c r="L2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="M2" s="0" t="n">
+        <v>6285711902430</v>
+      </c>
+      <c r="N2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="O2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="0" t="s">
+      <c r="P2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="Q2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X2" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>3009</v>
+        <v>3024</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>30142120211128</v>
+        <v>30292120211130</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="J3" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="J3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="N3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P3" s="0" t="s">
+      <c r="Q3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X3" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>3008</v>
+        <v>3023</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>30132120211128</v>
+        <v>30252120211130</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>51</v>
@@ -553,73 +766,945 @@
         <v>54</v>
       </c>
       <c r="H4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X4" s="0" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>3022</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>30252120211130</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="0" t="s">
+      <c r="I5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="0" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>3021</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>30252120211130</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="L4" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" s="0" t="s">
+      <c r="I6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="M6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P4" s="0" t="s">
+      <c r="P6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W6" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X6" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>3020</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>30252120211130</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="L7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="Q4" s="0" t="s">
+      <c r="N7" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>3019</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>30242120211129</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X8" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>3018</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>30232120211129</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="L9" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X9" s="0" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>3017</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>30222120211129</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="L10" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="M10" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P10" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X10" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="R4" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>3016</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>30212120211129</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="J11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W11" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X11" s="0" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>3015</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>30202120211129</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="L12" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X12" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="S4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>3014</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>30192120211129</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="J13" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W13" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>3013</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>30182120211129</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="F14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="H14" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="J14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="M14" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P14" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X14" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>3012</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>30172120211129</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="G15" s="0" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="J15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="L15" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="M15" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="N15" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P15" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W15" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X15" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="X4" s="0" t="s">
-        <v>50</v>
-      </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>3011</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>30162120211129</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>125</v>
+      </c>
+      <c r="G16" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="I16" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="0" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="0" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="O16" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="P16" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="S16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="W16" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="X16" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
